--- a/Resource/Menu and ReportHeader.xlsx
+++ b/Resource/Menu and ReportHeader.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\KSP-MIS\Resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TIT\KSP-BI\GIT\KSP-MIS\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF36EFA4-E684-4FF6-B986-32A42525FE0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E312C9-2530-48E3-9C2A-978A29E6FE20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{2519AC98-AA75-43AC-92A5-D3141F8FABB6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ชื่อหัวรายงานสำหรับเพิ่มใน Code" sheetId="3" r:id="rId1"/>
+    <sheet name="ชื่อรายงานใน TOR" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,31 +34,418 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="135">
   <si>
     <t>LIC-01</t>
   </si>
   <si>
-    <t>จำนวนใบอนุญาตหนังสืออนุญาต ที่ออกให้แก่ครู … จำแนกตามประเภทคำขอ</t>
-  </si>
-  <si>
     <t>LIC-02</t>
   </si>
   <si>
-    <t>จำนวนใบอนุญาตประกอบวิชาชีพที่ออกให้ครู … จำแนกตามประเภทสังกัด ปี พ.ศ. …</t>
-  </si>
-  <si>
     <t>LIC-16</t>
   </si>
   <si>
-    <t>10 อันดับประเทศที่มีการออกใบอนุญาตสูงสุด จำแนกตามประเภทคำขอ ปี พ.ศ. … ถึง …</t>
+    <t>LIC-03</t>
+  </si>
+  <si>
+    <t>LIC-08</t>
+  </si>
+  <si>
+    <t>LIC-04</t>
+  </si>
+  <si>
+    <t>LIC-05</t>
+  </si>
+  <si>
+    <t>LIC-06</t>
+  </si>
+  <si>
+    <t>LIC-07</t>
+  </si>
+  <si>
+    <t>LIC-09</t>
+  </si>
+  <si>
+    <t>LIC-10</t>
+  </si>
+  <si>
+    <t>LIC-11</t>
+  </si>
+  <si>
+    <t>LIC-12</t>
+  </si>
+  <si>
+    <t>LIC-14</t>
+  </si>
+  <si>
+    <t>LIC-13</t>
+  </si>
+  <si>
+    <t>LIC-15</t>
+  </si>
+  <si>
+    <t>LIC-17</t>
+  </si>
+  <si>
+    <t>ลำดับประเทศที่มีการออกใบอนุญาต/หนังสืออนุญาตสูงสุด จำแนกตามประเภทคำขอ จำแนกตามปีพ.ศ 2559- 2560</t>
+  </si>
+  <si>
+    <t>จำนวนใบอนุญาตประกอบวิชาชีพที่ออกให้แก่ชาวต่างประเทศ จำแนกตามสังกัด และ ปี พ.ศ.</t>
+  </si>
+  <si>
+    <t>จำนวนผู้ได้รับหนังสืออนุญาตให้ประกอบวิชาชีพทางการศึกษาโดยไม่มีใบอนุญาตประกอบวิชาชีพ จำแนกตามประเภท ปี พ.ศ. ทุกสังกัด</t>
+  </si>
+  <si>
+    <t>จำนวนผู้ได้รับหนังสืออนุญาตให้ประกอบวิชาชีพทางการศึกษาโดยไม่มีใบอนุญาตประกอบวิชาชีพ จำแนกตามคุณวุฒิการศึกษา ปี พ.ศ.</t>
+  </si>
+  <si>
+    <t>ข้อมูลการออกใบอนุญาตประกอบวิชาชีพครูต่างประเทศ หนังสืออนุญาตให้ประกอบวิชาชีพทางการศึกษาโดยไม่มีใบประกอบวิชาชีพ ประเภทครู ผู้บริหารสถานศึกษา และชาวต่างประเทศ จำแนกตามปีงบประมาณ</t>
+  </si>
+  <si>
+    <t>รายงานแสดงข้อมูลจำนวนผู้ได้รับใบอนุญาตประกอบวิชาชีพ จำแนกข้อมูลตามสังกัด และช่วงอายุ ระหว่างวันที่ xx ถึงวันที่ xx</t>
+  </si>
+  <si>
+    <t>รายงานแสดงข้อมูลจำนวนผู้ได้รับใบอนุญาตประกอบวิชาชีพ จำแนกข้อมูลตามวุฒิการศึกษาและประเภทวิชาชีพ ระหว่างวันที่ xx ถึงวันที่ xx</t>
+  </si>
+  <si>
+    <t>รายงานแสดงข้อมูลจำนวนผู้ได้รับใบอนุญาตประกอบวิชาชีพ จำแนกข้อมูลตามสังกัด ประเภทวิชาชีพ และเพศ ระหว่างวันที่ xx ถึงวันที่ xx</t>
+  </si>
+  <si>
+    <t>จำนวนผู้ได้รับหนังสืออนุญาตให้ประกอบวิชาชีพทางการศึกษาโดยไม่มีใบอนุญาตประกอบวิชาชีพ จำแนกตามสังกัด ปี พ.ศ. ทุกประเภท</t>
+  </si>
+  <si>
+    <t>ข้อมูลสถานศึกษาที่ขอหนังสืออนุญาตให้ประกอบวิชาชีพทางการศึกษาโดยไม่มีใบอนุญาตประกอบวิชาชีพ จำแนกสังกัด ปี พ.ศ. ทุกประเภท </t>
+  </si>
+  <si>
+    <t>จำนวนชาวต่างประเทศที่ได้รับใบอนุญาตประกอบวิชาชีพครูโดยไม่มีใบอนุญาตประกอบวิชาชีพ จำแนกตามสังกัด</t>
+  </si>
+  <si>
+    <t>จำนวนผู้ได้รับอนุญาตให้ประกอบวิชาชีพครูชาวต่างประเทศ จำแนกตามประเภทคำขอ รายเดือน รายปี</t>
+  </si>
+  <si>
+    <t>ข้อมูลการออกหนังสืออนุญาตให้ประกอบวิชาชีพทางการศึกษาโดยไม่มีใบอนุญาตประกอบวิชาชีพ ประเภทครู ผู้บริหารสถานศึกษา และชาวต่างประเทศ </t>
+  </si>
+  <si>
+    <t>รายงานแสดงข้อมูลจำนวนการส่งหนังสือ/เอกสารออก จำแนกตามประเภทเอกสาร ระหว่างวันที่ xx ถึงวันที่ xx</t>
+  </si>
+  <si>
+    <t>รายงานแสดงข้อมูลจำนวนการส่งหนังสือ/เอกสารเข้า จำแนกตามประเภทเอกสาร ระหว่างวันที่ xx ถึงวันที่ xx </t>
+  </si>
+  <si>
+    <t>รายงานแสดงข้อมูลจำนวนการออกใบแทนใบอนุญาตจำแนกตามประเภทวิชาชีพและสาเหตุการออกใบแทนใบอนุญาต ระหว่างวันที่ xx ถึงวันที่ xx </t>
+  </si>
+  <si>
+    <t>ข้อมูลชาวต่างประเทศที่ขึ้นทะเบียนรับใบอนุญาตประกอบวิชาชีพครู จำแนกต่างประเทศ ปี พ.ศ.  2562</t>
+  </si>
+  <si>
+    <t>จำนวนใบอนุญาต/หนังสืออนุญาต ที่ออกให้แก่ครูชาวต่างประเทศ จำแนกตามประเภทคำขอ </t>
+  </si>
+  <si>
+    <t>สรุปจำนวนผู้ฝึกอบรมมาตรฐานความรู้วิชาชีพครูของคุรุสภา  9 มาตรฐาน</t>
+  </si>
+  <si>
+    <t>ผู้ขอรับรองความรู้ตามมาตรฐานวิชาชีพครู โดยการทดสอบ ของครูไทย จำแนกตามเพศ</t>
+  </si>
+  <si>
+    <t>ข้อมูลหลักสูตรที่ได้รับการรับรอง </t>
+  </si>
+  <si>
+    <t>ผลการรับรองหลักสูตรเพื่อการพัฒนาครูและบุคลากรทางการศึกษา สายงานการสอน ประจำปีงบประมาณ พ.ศ. xx ของสำนักงานxxxx</t>
+  </si>
+  <si>
+    <t>SDT-01</t>
+  </si>
+  <si>
+    <t>SDT-02</t>
+  </si>
+  <si>
+    <t>SDT-03</t>
+  </si>
+  <si>
+    <t>ETH-01</t>
+  </si>
+  <si>
+    <t>จำนวนคดีจรรยาบรรณของวิชาชีพทุกสังกัด จำแนกตามประเภทความผิดทางจรรยาบรรณ</t>
+  </si>
+  <si>
+    <t>ETH-02</t>
+  </si>
+  <si>
+    <t>จำนวนคดีจรรยาบรรณของวิชาชีพสังกัดสำนักงานเขตพื้นที่การศึกษาประถมศึกษา จำแนกตามภาค และประเภทความผิดทางจรรยาบรรณ</t>
+  </si>
+  <si>
+    <t>จำนวนคดีจรรยาบรรณของวิชาชีพสังกัด... จำแนกตามภาค และประเภทความผิดทางจรรยาบรรณ</t>
+  </si>
+  <si>
+    <t>ETH-03</t>
+  </si>
+  <si>
+    <t>จำนวนคดีจรรยาบรรณของวิชาชีพสังกัดกรุงเทพมหานครประเภทความผิดทางจรรยาบรรณ</t>
+  </si>
+  <si>
+    <t>HR-05</t>
+  </si>
+  <si>
+    <t>สรุปข้อมูลกิจกรรมพัฒนาบุคลากรของสำนักงานเลขาธิการคุรุสภาในกิจกรรม… ณ วันที่...</t>
+  </si>
+  <si>
+    <t>HR-01</t>
+  </si>
+  <si>
+    <t>สรุปข้อมูลบุคลากรของสำนักงานเลขาธิการคุรุสภา ณ วันที่...</t>
+  </si>
+  <si>
+    <t>HR-08</t>
+  </si>
+  <si>
+    <t>สรุปข้อมูลบุคลากรของสำนักงานเลขาธิการคุรุสภา</t>
+  </si>
+  <si>
+    <t>HR-06</t>
+  </si>
+  <si>
+    <t>ข้อมูลพนักงานเจ้าหน้าที่ผู้มีคุณสมบัติเข้ารับการคัดเลือกในกลุ่มบริหาร และจัดทำผลงาน เพื่อเลื่อนวิทยฐานะ ณ วันที่...</t>
+  </si>
+  <si>
+    <t>HR-07</t>
+  </si>
+  <si>
+    <t>ตารางสรุปข้อมูลเสนอขอพระราชทานเครื่องราชอิสริยาภรณ์ในแต่ละปี </t>
+  </si>
+  <si>
+    <t>HR-02</t>
+  </si>
+  <si>
+    <t>รายละเอียดเงินประจำตำแหน่งของพนักงานเจ้าหน้าที่สำนักงานเลขาธิการคุรุสภา ประจำปีงบประมาณ  2562</t>
+  </si>
+  <si>
+    <t>รายละเอียดเงินเพิ่มพิเศษกรณีเงินเดือนเพิ่มขั้น ของพนักงานเจ้าหน้าที่สำนักงานเลขาธิการคุรุสภา ประจำปีงบประมาณ  2562</t>
+  </si>
+  <si>
+    <t>HR-03</t>
+  </si>
+  <si>
+    <t>รายงานเงินเดือนย้อนหลัง  60 เดือน ณ วันที่... </t>
+  </si>
+  <si>
+    <t>HR-04</t>
+  </si>
+  <si>
+    <t>รายชื่อ และยอดรวมจำนวนเงินที่หักสะสม 3% ของสมาชิก กบจ. รวม...ราย</t>
+  </si>
+  <si>
+    <t>BDG-01</t>
+  </si>
+  <si>
+    <t>ข้อมูลงบประมาณ 2562 บันทึกในระบบ EvMIS</t>
+  </si>
+  <si>
+    <t>BDG-03</t>
+  </si>
+  <si>
+    <t>ตารางเปรียบเทียบงบประมาณรายจ่ายประจำปีงบประมาณ พ.ศ. … และ พ.ศ. …  ของสำนักงานเลขาธิการคุรุสภา จำแนกตามแผนงาน</t>
+  </si>
+  <si>
+    <t>BDG-02</t>
+  </si>
+  <si>
+    <t>งบประมาณรายจ่ายประจำปีงบประมาณ พ.ศ. … ของสำนักงานเลขาธิการคุรุสภา จำแนกตามพันธกิจ/งาน/โครงการ และงบรายจ่าย</t>
+  </si>
+  <si>
+    <t>BDG-15</t>
+  </si>
+  <si>
+    <t>งบประมาณรายจ่ายประจำปีงบประมาณ  พ.ศ. … ของสำนักงานเลขาธิการคุรุสภา จำแนกตามพันธกิจ/งบรายจ่าย</t>
+  </si>
+  <si>
+    <t>BDG-05</t>
+  </si>
+  <si>
+    <t>รายงานกันเหลื่อมปี ประจำปีงบประมาณ พ.ศ. …</t>
+  </si>
+  <si>
+    <t>BDG-14</t>
+  </si>
+  <si>
+    <t>รายงานฐานะเงินงบประมาณรายจ่ายปีปัจจุบันและปีก่อน ประจำปีงบประมาณ  พ.ศ. …</t>
+  </si>
+  <si>
+    <t>BDG-08</t>
+  </si>
+  <si>
+    <t>งบประมาณรายจ่ายประจำปีงบประมาณ พ.ศ. … ของสำนักงานเลขาธิการคุรุสภา จำแนกตามส่วนงาน/งบรายจ่าย</t>
+  </si>
+  <si>
+    <t>BDG-09</t>
+  </si>
+  <si>
+    <t>ตารางสรุปงบประมาณรายจ่ายประจำปีงบประมาณ  พ.ศ. … ของสำนักงานเลขาธิการคุรุสภา จำแนกตามพันธกิจ/ไตรมาส</t>
+  </si>
+  <si>
+    <t>BDG-10</t>
+  </si>
+  <si>
+    <t>ประมาณการรายรับ ประจำปีงบประมาณ พ.ศ. … จำแนกตามไตรมาส ของสำนักงานเลขาธิการคุรุสภา</t>
+  </si>
+  <si>
+    <t>BDG-07</t>
+  </si>
+  <si>
+    <t>สำนักอำนวยการ กลุ่มการพัสดุและอาคารสถานที่ รายงานการจัดซื้อจัดจ้าง ประจำปีงบประมาณ พ.ศ. … (ภาพรวม)</t>
+  </si>
+  <si>
+    <t>BDG-13</t>
+  </si>
+  <si>
+    <t>รายงานผลตัวชี้วัด จำแนกตามปีงบประมาณ</t>
+  </si>
+  <si>
+    <t>BDG-11</t>
+  </si>
+  <si>
+    <t>สรุปฐานะการเงินของสำนักงานเลขาธิการคุรุสภา มูลนิธิ และกองทุนของคุรุสภา</t>
+  </si>
+  <si>
+    <t>BDG-12</t>
+  </si>
+  <si>
+    <t>สรุปผลการดำเนินงานทางการเงินของสำนักงานเลขาธิการคุรุสภา มูลนิธิ และกองทุนของคุรุสภา</t>
+  </si>
+  <si>
+    <t>ASS-01</t>
+  </si>
+  <si>
+    <t>ทะเบียนคุมครุภัณฑ์ สำนักงานเลขาธิการคุรุสภา</t>
+  </si>
+  <si>
+    <t>ASS-05</t>
+  </si>
+  <si>
+    <t>รายงานการแจ้งงานบริการอาคารสถานที่ สำนักงานเลขาธิการคุรุสภา</t>
+  </si>
+  <si>
+    <t>ASS-02</t>
+  </si>
+  <si>
+    <t>สำนักงานเลขาธิการคุรุสภา กลุ่มการพัสดุและอาคารสถานที่ สำนักอำนวยการ ประเภทวัสดุ (แบบพิมพ์/วัสดุสํานักงาน/วัสดุงานบ้านงานครัว/วัสดุคอมพิวเตอร์/วัสดุก่อสร้าง/วัสดุไฟฟ้า และวิทยุ) คงเหลือ ณ วันที่…เดือน...พ.ศ. ....</t>
+  </si>
+  <si>
+    <t>ASS-03</t>
+  </si>
+  <si>
+    <t>ประเภทวัสดุ...รายการ… จากวันที่...ถึงวันที่...</t>
+  </si>
+  <si>
+    <t>ASS-04</t>
+  </si>
+  <si>
+    <t>รายงานการขอใช้ห้องประชุม สำนักงานเลขาธิการคุรุสภา</t>
+  </si>
+  <si>
+    <t>สำนักงานเลขาธิการคุรุสภา ทะเบียนคุมสัญญายืมเงินทดรองทั้งหมด วันที่...ถึงวันที่...</t>
+  </si>
+  <si>
+    <t>BDG-06</t>
+  </si>
+  <si>
+    <t>จำนวนเข้าตามหน่วยงาน ประเภทเอกสาร</t>
+  </si>
+  <si>
+    <t>จำนวนออกตามหน่วยงาน ประเภทเอกสาร</t>
+  </si>
+  <si>
+    <t>เปรียบเทียบจำนวนเอกสาร เข้า-ออกตามหน่วยงาน</t>
+  </si>
+  <si>
+    <t>DOC-01</t>
+  </si>
+  <si>
+    <t>DOC-02</t>
+  </si>
+  <si>
+    <t>DOC-03</t>
+  </si>
+  <si>
+    <t>ข้อมูลการออกใบอนุญาตประกอบวิชาชีพครูต่างประเทศ หนังสืออนุญาตให้ประกอบวิชาชีพทางการศึกษาโดยไม่มีใบประกอบวิชาชีพ ประเภทครู ผู้บริหารสถานศึกษา และชาวต่างประเทศ จำแนกตามปีงบประมาณ …</t>
+  </si>
+  <si>
+    <t>รายงานแสดงข้อมูลจำนวนผู้ได้รับใบอนุญาตประกอบวิชาชีพ จำแนกข้อมูลตามสังกัด และช่วงอายุ ระหว่างวันที่ ... ถึงวันที่ …</t>
+  </si>
+  <si>
+    <t>รายงานแสดงข้อมูลจำนวนผู้ได้รับใบอนุญาตประกอบวิชาชีพ จำแนกข้อมูลตามวุฒิการศึกษาและประเภทวิชาชีพ ระหว่างวันที่ ... ถึงวันที่ …</t>
+  </si>
+  <si>
+    <t>รายงานแสดงข้อมูลจำนวนผู้ได้รับใบอนุญาตประกอบวิชาชีพ จำแนกข้อมูลตามสังกัด ประเภทวิชาชีพ และเพศ ระหว่างวันที่ ... ถึงวันที่ …</t>
+  </si>
+  <si>
+    <t>รายงานแสดงข้อมูลจำนวนการส่งหนังสือ/เอกสารออก จำแนกตามประเภทเอกสาร ระหว่างวันที่ ... ถึงวันที่ …</t>
+  </si>
+  <si>
+    <t>รายงานแสดงข้อมูลจำนวนการส่งหนังสือ/เอกสารเข้า จำแนกตามประเภทเอกสาร ระหว่างวันที่ ... ถึงวันที่ …</t>
+  </si>
+  <si>
+    <t>รายงานแสดงข้อมูลจำนวนการออกใบแทนใบอนุญาตจำแนกตามประเภทวิชาชีพและสาเหตุการออกใบแทนใบอนุญาต ระหว่างวันที่ ... ถึงวันที่ …</t>
+  </si>
+  <si>
+    <t>จำนวนใบอนุญาต / หนังสืออนุญาต ที่ออกให้แก่ครู ... จำแนกตามประเภทคำขอ </t>
+  </si>
+  <si>
+    <t>จำนวนคดีจรรยาบรรณของวิชาชีพสังกัด ... จำแนกตามภาค และประเภทความผิดทางจรรยาบรรณ</t>
+  </si>
+  <si>
+    <t>สรุปข้อมูลกิจกรรมพัฒนาบุคลากรของสำนักงานเลขาธิการคุรุสภาในกิจกรรม … ณ วันที่ ...</t>
+  </si>
+  <si>
+    <t>สรุปข้อมูลบุคลากรของสำนักงานเลขาธิการคุรุสภา ณ วันที่ …</t>
+  </si>
+  <si>
+    <t>ข้อมูลพนักงานเจ้าหน้าที่ผู้มีคุณสมบัติเข้ารับการคัดเลือกในกลุ่มบริหาร และจัดทำผลงาน เพื่อเลื่อนวิทยฐานะ ณ วันที่ ...</t>
+  </si>
+  <si>
+    <t>รายละเอียดเงินประจำตำแหน่งของพนักงานเจ้าหน้าที่สำนักงานเลขาธิการคุรุสภา ประจำปีงบประมาณ …</t>
+  </si>
+  <si>
+    <t>รายละเอียดเงินเพิ่มพิเศษกรณีเงินเดือนเพิ่มขั้น ของพนักงานเจ้าหน้าที่สำนักงานเลขาธิการคุรุสภา ประจำปีงบประมาณ …</t>
+  </si>
+  <si>
+    <t>รายงานเงินเดือนย้อนหลัง  60 เดือน ณ วันที่ …</t>
+  </si>
+  <si>
+    <t>รายชื่อ และยอดรวมจำนวนเงินที่หักสะสม 3% ของสมาชิก กบจ. รวม … ราย</t>
+  </si>
+  <si>
+    <t>ข้อมูลงบประมาณ ... บันทึกในระบบ EvMIS</t>
+  </si>
+  <si>
+    <t>ลำดับประเทศที่มีการออกใบอนุญาต /หนังสืออนุญาตสูงสุด จำแนกตามประเภทคำขอ จำแนกตาม ปี พ.ศ. …</t>
+  </si>
+  <si>
+    <t>จำนวนใบอนุญาตประกอบวิชาชีพที่ออกให้แก่ ... จำแนกตามสังกัด และ ปี พ.ศ. …</t>
+  </si>
+  <si>
+    <t>จำนวนผู้ได้รับหนังสืออนุญาตให้ประกอบวิชาชีพทางการศึกษาโดยไม่มีใบอนุญาตประกอบวิชาชีพ จำแนกตามคุณวุฒิการศึกษา ปี พ.ศ. …</t>
+  </si>
+  <si>
+    <t>ข้อมูลชาวต่างประเทศที่ขึ้นทะเบียนรับใบอนุญาตประกอบวิชาชีพครู จำแนกตามประเทศ ปี พ.ศ. ...</t>
+  </si>
+  <si>
+    <t>ผลการรับรองหลักสูตรเพื่อการพัฒนาครูและบุคลากรทางการศึกษา สายงานการสอน ประจำปีงบประมาณ พ.ศ. ... ของสำนักงาน …</t>
+  </si>
+  <si>
+    <t>สำนักงานเลขาธิการคุรุสภา ทะเบียนคุมสัญญายืมเงินทดรองทั้งหมด วันที่ … ถึงวันที่ …</t>
+  </si>
+  <si>
+    <t>สำนักงานเลขาธิการคุรุสภา กลุ่มการพัสดุและอาคารสถานที่ สำนักอำนวยการ ประเภทวัสดุ (แบบพิมพ์/วัสดุสํานักงาน/วัสดุงานบ้านงานครัว/วัสดุคอมพิวเตอร์/วัสดุก่อสร้าง/วัสดุไฟฟ้า และวิทยุ) คงเหลือ ณ วันที่ … เดือน ...พ.ศ. ....</t>
+  </si>
+  <si>
+    <t>ประเภทวัสดุ … รายการ … จากวันที่ … ถึงวันที่ …</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,16 +453,77 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBBCD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4B5F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -82,18 +531,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE4B5F1"/>
+      <color rgb="FFFBBBCD"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -401,43 +910,958 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765725B7-9C34-452E-8DD9-FB5C33166661}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419C5551-9B85-4C9C-8AE4-78CB7BE2B2DF}">
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="9.06640625" style="2"/>
+    <col min="2" max="2" width="185.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.06640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A25" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A26" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A27" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A29" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A30" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A31" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A32" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A33" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A34" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A35" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A36" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A37" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A39" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A40" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A41" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A42" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A43" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A44" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A45" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A46" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A47" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A48" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A49" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A50" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A51" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A52" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A54" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A55" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.5">
+      <c r="A56" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A57" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A58" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A60" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A61" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A62" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3EBE64-E381-4DE9-AB82-E018D5257116}">
+  <dimension ref="A1:B70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="68.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.06640625" style="6"/>
+    <col min="2" max="2" width="169.796875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="B6" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="8"/>
+      <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A28:A30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resource/Menu and ReportHeader.xlsx
+++ b/Resource/Menu and ReportHeader.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TIT\KSP-BI\GIT\KSP-MIS\Resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\KSP-MIS\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E312C9-2530-48E3-9C2A-978A29E6FE20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E99B4CC-5723-44B0-A1A0-7E8A36E8F261}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{2519AC98-AA75-43AC-92A5-D3141F8FABB6}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="ชื่อหัวรายงานสำหรับเพิ่มใน Code" sheetId="3" r:id="rId1"/>
     <sheet name="ชื่อรายงานใน TOR" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ชื่อหัวรายงานสำหรับเพิ่มใน Code'!$C$1:$C$62</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="136">
   <si>
     <t>LIC-01</t>
   </si>
@@ -366,9 +369,6 @@
     <t>DOC-03</t>
   </si>
   <si>
-    <t>ข้อมูลการออกใบอนุญาตประกอบวิชาชีพครูต่างประเทศ หนังสืออนุญาตให้ประกอบวิชาชีพทางการศึกษาโดยไม่มีใบประกอบวิชาชีพ ประเภทครู ผู้บริหารสถานศึกษา และชาวต่างประเทศ จำแนกตามปีงบประมาณ …</t>
-  </si>
-  <si>
     <t>รายงานแสดงข้อมูลจำนวนผู้ได้รับใบอนุญาตประกอบวิชาชีพ จำแนกข้อมูลตามสังกัด และช่วงอายุ ระหว่างวันที่ ... ถึงวันที่ …</t>
   </si>
   <si>
@@ -417,12 +417,6 @@
     <t>ข้อมูลงบประมาณ ... บันทึกในระบบ EvMIS</t>
   </si>
   <si>
-    <t>ลำดับประเทศที่มีการออกใบอนุญาต /หนังสืออนุญาตสูงสุด จำแนกตามประเภทคำขอ จำแนกตาม ปี พ.ศ. …</t>
-  </si>
-  <si>
-    <t>จำนวนใบอนุญาตประกอบวิชาชีพที่ออกให้แก่ ... จำแนกตามสังกัด และ ปี พ.ศ. …</t>
-  </si>
-  <si>
     <t>จำนวนผู้ได้รับหนังสืออนุญาตให้ประกอบวิชาชีพทางการศึกษาโดยไม่มีใบอนุญาตประกอบวิชาชีพ จำแนกตามคุณวุฒิการศึกษา ปี พ.ศ. …</t>
   </si>
   <si>
@@ -439,6 +433,18 @@
   </si>
   <si>
     <t>ประเภทวัสดุ … รายการ … จากวันที่ … ถึงวันที่ …</t>
+  </si>
+  <si>
+    <t>หนังสืออนุญาตให้ประกอบวิชาชีพทางการศึกษาโดยไม่มีใบประกอบวิชาชีพ ประเภทครู ผู้บริหารสถานศึกษา และชาวต่างประเทศ จำแนกตามปีงบประมาณ …</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>จำนวนใบอนุญาตประกอบวิชาชีพที่ออกให้แก่ ... จำแนกตามสังกัด ปี พ.ศ. … ถึง …</t>
+  </si>
+  <si>
+    <t>ลำดับประเทศที่มีการออกใบอนุญาต /หนังสืออนุญาตสูงสุด จำแนกตามประเภทคำขอ และ ปี พ.ศ. …</t>
   </si>
 </sst>
 </file>
@@ -473,7 +479,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -522,6 +528,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -550,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -566,9 +578,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -591,6 +600,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -911,253 +927,311 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419C5551-9B85-4C9C-8AE4-78CB7BE2B2DF}">
-  <dimension ref="A1:B62"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A2:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="9.06640625" style="2"/>
-    <col min="2" max="2" width="185.53125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.06640625" style="2"/>
+    <col min="2" max="2" width="129.6640625" style="2" customWidth="1"/>
+    <col min="3" max="8" width="9.06640625" style="2"/>
+    <col min="9" max="9" width="20.9296875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" s="11" t="s">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" s="11" t="s">
+      <c r="B2" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" s="11" t="s">
+      <c r="B3" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" s="11" t="s">
+      <c r="B4" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A5" s="11" t="s">
+      <c r="C5" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A6" s="11" t="s">
+      <c r="B6" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C8" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="C9" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A10" s="11" t="s">
+      <c r="C10" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A11" s="11" t="s">
+      <c r="C11" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A12" s="11" t="s">
+      <c r="C12" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A13" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" s="11" t="s">
+      <c r="C13" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A15" s="11" t="s">
+      <c r="C14" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18" s="11" t="s">
+      <c r="C17" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A21" s="12" t="s">
+      <c r="C20" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A22" s="12" t="s">
+      <c r="C21" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A23" s="12" t="s">
+      <c r="C22" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A25" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A25" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A26" s="13" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A26" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A27" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A29" s="14" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A29" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A30" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A30" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A31" s="14" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A31" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A32" s="14" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A32" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="13" t="s">
         <v>57</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -1165,47 +1239,47 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="13" t="s">
         <v>59</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A35" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A35" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="4" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A36" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A36" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="4" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A37" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A37" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="4" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A39" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A39" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -1213,7 +1287,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -1221,7 +1295,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="14" t="s">
         <v>72</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -1229,7 +1303,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -1237,7 +1311,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -1245,7 +1319,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -1253,7 +1327,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="14" t="s">
         <v>80</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -1261,7 +1335,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="14" t="s">
         <v>82</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -1269,7 +1343,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="14" t="s">
         <v>84</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -1277,7 +1351,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -1285,7 +1359,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="14" t="s">
         <v>88</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -1293,7 +1367,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="14" t="s">
         <v>90</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -1301,15 +1375,15 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="14" t="s">
         <v>103</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="15" t="s">
         <v>92</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -1317,7 +1391,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="15" t="s">
         <v>94</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -1325,23 +1399,23 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.5">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="15" t="s">
         <v>96</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="15" t="s">
         <v>98</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="15" t="s">
         <v>100</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -1349,7 +1423,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="16" t="s">
         <v>107</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -1357,7 +1431,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="16" t="s">
         <v>108</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -1365,7 +1439,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="16" t="s">
         <v>109</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -1373,6 +1447,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C62" xr:uid="{D06184C1-E985-4095-8437-2A38860EA4FE}">
+    <filterColumn colId="0">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1576,7 +1655,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1584,11 +1663,11 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="8"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="8"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="1" t="s">
         <v>46</v>
       </c>
@@ -1834,7 +1913,7 @@
       <c r="B66" s="1"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="9" t="s">
         <v>107</v>
       </c>
       <c r="B68" s="6" t="s">
@@ -1842,7 +1921,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="9" t="s">
         <v>108</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -1850,7 +1929,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="9" t="s">
         <v>109</v>
       </c>
       <c r="B70" s="6" t="s">

--- a/Resource/Menu and ReportHeader.xlsx
+++ b/Resource/Menu and ReportHeader.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\KSP-MIS\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E99B4CC-5723-44B0-A1A0-7E8A36E8F261}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F2C412-6635-4F08-89D8-555FAA8A17B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{2519AC98-AA75-43AC-92A5-D3141F8FABB6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="136">
   <si>
     <t>LIC-01</t>
   </si>
@@ -931,7 +931,7 @@
   <dimension ref="A2:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1174,28 +1174,37 @@
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
       <c r="A25" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C25" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
       <c r="A26" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C26" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
       <c r="A27" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>48</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.5">

--- a/Resource/Menu and ReportHeader.xlsx
+++ b/Resource/Menu and ReportHeader.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\KSP-MIS\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F2C412-6635-4F08-89D8-555FAA8A17B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5888DFB8-265F-4F74-A8A5-F007B844C0E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{2519AC98-AA75-43AC-92A5-D3141F8FABB6}"/>
   </bookViews>
@@ -600,12 +600,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -927,11 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419C5551-9B85-4C9C-8AE4-78CB7BE2B2DF}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A2:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -943,18 +942,18 @@
     <col min="10" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -965,7 +964,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
@@ -976,7 +975,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
@@ -987,7 +986,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
@@ -998,18 +997,18 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>132</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -1020,7 +1019,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
@@ -1031,7 +1030,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
@@ -1042,7 +1041,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
@@ -1053,7 +1052,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -1064,7 +1063,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -1075,7 +1074,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14" s="10" t="s">
         <v>12</v>
       </c>
@@ -1086,7 +1085,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15" s="10" t="s">
         <v>13</v>
       </c>
@@ -1097,7 +1096,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
@@ -1108,7 +1107,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17" s="10" t="s">
         <v>15</v>
       </c>
@@ -1119,7 +1118,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
@@ -1130,7 +1129,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20" s="11" t="s">
         <v>39</v>
       </c>
@@ -1141,7 +1140,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21" s="11" t="s">
         <v>40</v>
       </c>
@@ -1152,7 +1151,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22" s="11" t="s">
         <v>41</v>
       </c>
@@ -1163,7 +1162,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23" s="11" t="s">
         <v>41</v>
       </c>
@@ -1174,7 +1173,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A25" s="12" t="s">
         <v>42</v>
       </c>
@@ -1185,7 +1184,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A26" s="12" t="s">
         <v>44</v>
       </c>
@@ -1196,7 +1195,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27" s="12" t="s">
         <v>47</v>
       </c>
@@ -1456,11 +1455,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C62" xr:uid="{D06184C1-E985-4095-8437-2A38860EA4FE}">
-    <filterColumn colId="0">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:C62" xr:uid="{D06184C1-E985-4095-8437-2A38860EA4FE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1664,7 +1659,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="19" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1672,11 +1667,11 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="17"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="8"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="17"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="1" t="s">
         <v>46</v>
       </c>
